--- a/Hospital Tables.xlsx
+++ b/Hospital Tables.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paddy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paddy\Documents\GitHub\iat-814-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC343F1-9237-4D59-A76D-E2C435A2C13E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701C12FA-8F04-4ED5-B399-C90161F91F2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75780E1A-AD09-429F-BF4E-1CDD296A98AB}"/>
   </bookViews>
@@ -22,8 +22,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId7"/>
-    <pivotCache cacheId="7" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="186">
   <si>
     <t>Bed No</t>
   </si>
@@ -592,14 +593,28 @@
   </si>
   <si>
     <t>Total Patients</t>
+  </si>
+  <si>
+    <t>Bed Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -627,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -638,6 +653,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,6 +793,40 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paddy" refreshedDate="43881.542575925923" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{F78B83B8-0A8B-4BED-A9D8-691B3996C058}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E29" sheet="Bed"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="BID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Unit" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Bed No" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Occupied"/>
+        <s v="Clean/Vacant"/>
+        <s v="Dirty"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
   <r>
@@ -1147,8 +1197,209 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
+  <r>
+    <s v="B93"/>
+    <s v="General &amp; Acute"/>
+    <s v="5E"/>
+    <n v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="B111"/>
+    <s v="Learning Disabilities"/>
+    <s v="6A"/>
+    <n v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="B100"/>
+    <s v="Maternity"/>
+    <s v="1B"/>
+    <n v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="B126"/>
+    <s v="Mental Illness"/>
+    <s v="1B"/>
+    <n v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="B141"/>
+    <s v="General &amp; Acute"/>
+    <s v="5E"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="B52"/>
+    <s v="Learning Disabilities"/>
+    <s v="6A"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="B128"/>
+    <s v="Maternity"/>
+    <s v="1B"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="B145"/>
+    <s v="Mental Illness"/>
+    <s v="1B"/>
+    <n v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="B127"/>
+    <s v="General &amp; Acute"/>
+    <s v="5E"/>
+    <n v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="B127"/>
+    <s v="Learning Disabilities"/>
+    <s v="6A"/>
+    <n v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="B114"/>
+    <s v="Maternity"/>
+    <s v="1B"/>
+    <n v="14"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="B62"/>
+    <s v="Mental Illness"/>
+    <s v="1B"/>
+    <n v="15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="B162"/>
+    <s v="Learning Disabilities"/>
+    <s v="1B"/>
+    <n v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="B98"/>
+    <s v="Maternity"/>
+    <s v="5E"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="B129"/>
+    <s v="Mental Illness"/>
+    <s v="6A"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="B112"/>
+    <s v="General &amp; Acute"/>
+    <s v="1B"/>
+    <n v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="B84"/>
+    <s v="Learning Disabilities"/>
+    <s v="1B"/>
+    <n v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="B195"/>
+    <s v="Maternity"/>
+    <s v="1B"/>
+    <n v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="B141"/>
+    <s v="Learning Disabilities"/>
+    <s v="5E"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="B150"/>
+    <s v="Maternity"/>
+    <s v="6A"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="B196"/>
+    <s v="Mental Illness"/>
+    <s v="1B"/>
+    <n v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="B132"/>
+    <s v="General &amp; Acute"/>
+    <s v="1B"/>
+    <n v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="B83"/>
+    <s v="Learning Disabilities"/>
+    <s v="1B"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="B111"/>
+    <s v="Maternity"/>
+    <s v="1B"/>
+    <n v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="B114"/>
+    <s v="Mental Illness"/>
+    <s v="5E"/>
+    <n v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="B140"/>
+    <s v="General &amp; Acute"/>
+    <s v="6A"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="B155"/>
+    <s v="Learning Disabilities"/>
+    <s v="1B"/>
+    <n v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="B147"/>
+    <s v="Learning Disabilities"/>
+    <s v="1B"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25739C22-F936-4253-95F0-B26479E29BCF}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Admission Date">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25739C22-F936-4253-95F0-B26479E29BCF}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Admission Date">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -1225,7 +1476,59 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{438B8CE4-9555-4367-845C-02355D3B5F02}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Department">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8392340E-814E-412B-ACA4-0D730C5B60A6}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Bed Status">
+  <location ref="K1:L5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Total " fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{438B8CE4-9555-4367-845C-02355D3B5F02}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Department">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0">
@@ -1607,7 +1910,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,46 +1932,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2152,7 +2455,7 @@
   <dimension ref="A3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2243,7 +2546,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2255,19 +2558,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2614,53 +2917,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62BC739-7065-4910-8BDF-9A1F19CA4208}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -2685,8 +2996,14 @@
       <c r="H2" s="1">
         <v>43882</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -2711,8 +3028,14 @@
       <c r="H3" s="1">
         <v>43884</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -2737,8 +3060,14 @@
       <c r="H4" s="1">
         <v>43885</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -2763,8 +3092,14 @@
       <c r="H5" s="1">
         <v>43884</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -2790,7 +3125,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -2816,7 +3151,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -2842,7 +3177,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -2868,7 +3203,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -2894,7 +3229,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -2920,7 +3255,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -2946,7 +3281,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -2972,7 +3307,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -2989,7 +3324,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -3006,7 +3341,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -3246,7 +3581,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3255,7 +3590,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3325,7 +3660,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3337,19 +3672,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Hospital Tables.xlsx
+++ b/Hospital Tables.xlsx
@@ -2,31 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkenday\Documents\GitHub\iat-814-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paddy\Documents\GitHub\iat-814-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A636EB85-CC14-4007-AA13-30B27D6DA46B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6401DEFA-4785-4E40-9BBA-7232D654BF41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="6" xr2:uid="{75780E1A-AD09-429F-BF4E-1CDD296A98AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{75780E1A-AD09-429F-BF4E-1CDD296A98AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bed (2)" sheetId="13" r:id="rId1"/>
     <sheet name="Patient" sheetId="2" r:id="rId2"/>
     <sheet name="Patient Summary" sheetId="9" r:id="rId3"/>
     <sheet name="Daily Status" sheetId="8" r:id="rId4"/>
-    <sheet name="Bed" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId6"/>
-    <sheet name="DEPT" sheetId="10" r:id="rId7"/>
-    <sheet name="Bed Summary" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId9"/>
-    <sheet name="Staff" sheetId="4" r:id="rId10"/>
+    <sheet name="Sheet5" sheetId="16" r:id="rId5"/>
+    <sheet name="Bed" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="15" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId9"/>
+    <sheet name="DEPT" sheetId="10" r:id="rId10"/>
+    <sheet name="Bed Summary" sheetId="7" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
+    <sheet name="Staff" sheetId="4" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="4" r:id="rId15"/>
+    <pivotCache cacheId="8" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="193">
   <si>
     <t>Bed No</t>
   </si>
@@ -613,6 +618,15 @@
   </si>
   <si>
     <t>25-02-2020</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Count of Bed No</t>
   </si>
 </sst>
 </file>
@@ -659,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -682,6 +696,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,6 +782,105 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paddy" refreshedDate="43888.433612962966" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="31" xr:uid="{E63D9F9F-A275-47FE-A855-78D733382734}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="General &amp; Acute"/>
+        <s v="Emergency"/>
+        <s v="Surgical"/>
+        <s v="Maternity"/>
+        <s v="Ortho"/>
+        <s v="Psychiatry"/>
+        <s v="Pediatric"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Unit" numFmtId="0">
+      <sharedItems containsBlank="1" count="13">
+        <s v="3G1"/>
+        <s v="1EU1"/>
+        <s v="1EU2"/>
+        <s v="1SG"/>
+        <s v="3G2"/>
+        <s v="2MU1"/>
+        <s v="2MU2"/>
+        <s v="1OR"/>
+        <s v="3G3"/>
+        <s v="4MH"/>
+        <s v="2PD1"/>
+        <s v="2MU3"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Bed No" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paddy" refreshedDate="43888.435071296299" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="31" xr:uid="{034FD006-07BB-449B-96F3-CD1899BE4B00}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F1048576" sheet="Bed"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Date" numFmtId="164">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="BID" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Unit" numFmtId="0">
+      <sharedItems containsBlank="1" count="13">
+        <s v="3G1"/>
+        <s v="1EU1"/>
+        <s v="1EU2"/>
+        <s v="1SG"/>
+        <s v="3G2"/>
+        <s v="2MU1"/>
+        <s v="2MU2"/>
+        <s v="1OR"/>
+        <s v="3G3"/>
+        <s v="4MH"/>
+        <s v="2PD1"/>
+        <s v="2MU3"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Bed No" numFmtId="49">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Occupied"/>
+        <s v="Clean/Vacant"/>
+        <s v="Dirty"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
   <r>
@@ -958,6 +1074,419 @@
     <s v="B"/>
     <x v="3"/>
     <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="09"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="08"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="02"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="09"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <s v="08"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <s v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="07"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="05"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="9"/>
+    <s v="06"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="10"/>
+    <s v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <s v="09"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="08"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <s v="02"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="04"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="08"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="12"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="9"/>
+    <s v="07"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <s v="05"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="06"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="09"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="10"/>
+    <s v="08"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <s v="02"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <s v="09"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="9"/>
+    <s v="03"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="08"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="05"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="12"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
+  <r>
+    <s v="24-02-2020"/>
+    <s v="3G110"/>
+    <s v="General &amp; Acute"/>
+    <x v="0"/>
+    <s v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="1EU109"/>
+    <s v="Emergency"/>
+    <x v="1"/>
+    <s v="09"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="1EU208"/>
+    <s v="Emergency"/>
+    <x v="2"/>
+    <s v="08"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="1SG02"/>
+    <s v="Surgical"/>
+    <x v="3"/>
+    <s v="02"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="3G209"/>
+    <s v="General &amp; Acute"/>
+    <x v="4"/>
+    <s v="09"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="2MU111"/>
+    <s v="Maternity"/>
+    <x v="5"/>
+    <s v="11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="2MU208"/>
+    <s v="Maternity"/>
+    <x v="6"/>
+    <s v="08"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="1OR12"/>
+    <s v="Ortho"/>
+    <x v="7"/>
+    <s v="12"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="3G307"/>
+    <s v="General &amp; Acute"/>
+    <x v="8"/>
+    <s v="07"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="1EU105"/>
+    <s v="Emergency"/>
+    <x v="1"/>
+    <s v="05"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="4MH06"/>
+    <s v="Psychiatry"/>
+    <x v="9"/>
+    <s v="06"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="2PD110"/>
+    <s v="Pediatric"/>
+    <x v="10"/>
+    <s v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="1OR09"/>
+    <s v="Ortho"/>
+    <x v="7"/>
+    <s v="09"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="1EU208"/>
+    <s v="Emergency"/>
+    <x v="2"/>
+    <s v="08"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="3G202"/>
+    <s v="Pediatric"/>
+    <x v="4"/>
+    <s v="02"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="24-02-2020"/>
+    <s v="3G204"/>
+    <s v="General &amp; Acute"/>
+    <x v="4"/>
+    <s v="04"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="23-03-2020"/>
+    <s v="3G311"/>
+    <s v="General &amp; Acute"/>
+    <x v="8"/>
+    <s v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="23-03-2020"/>
+    <s v="1SG08"/>
+    <s v="Surgical"/>
+    <x v="3"/>
+    <s v="08"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="23-03-2020"/>
+    <s v="2MU112"/>
+    <s v="Maternity"/>
+    <x v="5"/>
+    <s v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="23-03-2020"/>
+    <s v="4MH07"/>
+    <s v="Psychiatry"/>
+    <x v="9"/>
+    <s v="07"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="23-03-2020"/>
+    <s v="1OR05"/>
+    <s v="Ortho"/>
+    <x v="7"/>
+    <s v="05"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="23-03-2020"/>
+    <s v="1SG06"/>
+    <s v="Surgical"/>
+    <x v="3"/>
+    <s v="06"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="23-03-2020"/>
+    <s v="3G210"/>
+    <s v="General &amp; Acute"/>
+    <x v="4"/>
+    <s v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="23-03-2020"/>
+    <s v="1SG09"/>
+    <s v="Surgical"/>
+    <x v="3"/>
+    <s v="09"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="23-03-2020"/>
+    <s v="2PD108"/>
+    <s v="Pediatric"/>
+    <x v="10"/>
+    <s v="08"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="23-03-2020"/>
+    <s v="1OR02"/>
+    <s v="Ortho"/>
+    <x v="7"/>
+    <s v="02"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="22-02-2020"/>
+    <s v="2MU309"/>
+    <s v="Maternity"/>
+    <x v="11"/>
+    <s v="09"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="22-02-2020"/>
+    <s v="4MH03"/>
+    <s v="Psychiatry"/>
+    <x v="9"/>
+    <s v="03"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="22-02-2020"/>
+    <s v="2MU108"/>
+    <s v="Maternity"/>
+    <x v="5"/>
+    <s v="08"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="22-02-2020"/>
+    <s v="3G205"/>
+    <s v="General &amp; Acute"/>
+    <x v="4"/>
+    <s v="05"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="12"/>
+    <m/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -1026,6 +1555,285 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Total Patients" fld="0" subtotal="count" baseField="12" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64E8D402-5DA0-4E1F-AA87-13B22F4EA7BC}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="39">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Bed No" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADC59E82-0FBD-4250-A3E5-146D086F09F1}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Bed No" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1342,23 +2150,23 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="8"/>
+    <col min="1" max="1" width="17.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="8"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.796875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3984375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.86328125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="11" customWidth="1"/>
     <col min="12" max="12" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>184</v>
       </c>
@@ -1396,7 +2204,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>185</v>
       </c>
@@ -1429,7 +2237,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>185</v>
       </c>
@@ -1462,7 +2270,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>185</v>
       </c>
@@ -1495,7 +2303,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>185</v>
       </c>
@@ -1528,7 +2336,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>185</v>
       </c>
@@ -1561,7 +2369,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>185</v>
       </c>
@@ -1594,7 +2402,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>185</v>
       </c>
@@ -1627,7 +2435,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>185</v>
       </c>
@@ -1660,7 +2468,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>185</v>
       </c>
@@ -1693,7 +2501,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>185</v>
       </c>
@@ -1726,7 +2534,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>185</v>
       </c>
@@ -1759,7 +2567,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>185</v>
       </c>
@@ -1792,7 +2600,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>185</v>
       </c>
@@ -1813,7 +2621,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>185</v>
       </c>
@@ -1834,7 +2642,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>185</v>
       </c>
@@ -1855,7 +2663,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>185</v>
       </c>
@@ -1876,7 +2684,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>186</v>
       </c>
@@ -1897,7 +2705,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>186</v>
       </c>
@@ -1918,7 +2726,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>186</v>
       </c>
@@ -1939,7 +2747,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>186</v>
       </c>
@@ -1960,7 +2768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>186</v>
       </c>
@@ -1981,7 +2789,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>186</v>
       </c>
@@ -2002,7 +2810,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>186</v>
       </c>
@@ -2023,7 +2831,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>186</v>
       </c>
@@ -2044,7 +2852,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>186</v>
       </c>
@@ -2065,7 +2873,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>186</v>
       </c>
@@ -2086,7 +2894,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>187</v>
       </c>
@@ -2107,7 +2915,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>187</v>
       </c>
@@ -2128,7 +2936,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>187</v>
       </c>
@@ -2149,7 +2957,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>187</v>
       </c>
@@ -2195,6 +3003,213 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B636C2E9-48AB-4C82-82F7-5488A246D229}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="A2:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67E9388-8F09-466C-9D14-CEDAC7EC34F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3506AE58-2771-4A31-A5D4-F179244DC879}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F045BD-D1E0-4EFB-BEFF-A5E7304CB0F8}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2202,15 +3217,15 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -2227,7 +3242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>603</v>
       </c>
@@ -2244,7 +3259,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>773</v>
       </c>
@@ -2261,7 +3276,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>745</v>
       </c>
@@ -2278,7 +3293,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>668</v>
       </c>
@@ -2295,7 +3310,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>787</v>
       </c>
@@ -2312,7 +3327,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>726</v>
       </c>
@@ -2329,7 +3344,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>965</v>
       </c>
@@ -2346,7 +3361,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>667</v>
       </c>
@@ -2363,7 +3378,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>907</v>
       </c>
@@ -2380,7 +3395,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>592</v>
       </c>
@@ -2407,28 +3422,28 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="O1" sqref="O1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +3487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>24726</v>
       </c>
@@ -2511,7 +3526,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20504</v>
       </c>
@@ -2550,7 +3565,7 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>81361</v>
       </c>
@@ -2589,7 +3604,7 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>62352</v>
       </c>
@@ -2628,7 +3643,7 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>12948</v>
       </c>
@@ -2667,7 +3682,7 @@
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>57938</v>
       </c>
@@ -2706,7 +3721,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>63289</v>
       </c>
@@ -2745,7 +3760,7 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>83099</v>
       </c>
@@ -2784,7 +3799,7 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>74463</v>
       </c>
@@ -2823,7 +3838,7 @@
       </c>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>29572</v>
       </c>
@@ -2862,7 +3877,7 @@
       </c>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>73323</v>
       </c>
@@ -2903,7 +3918,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>50248</v>
       </c>
@@ -2955,13 +3970,13 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2969,7 +3984,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43876</v>
       </c>
@@ -2977,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43878</v>
       </c>
@@ -2985,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43879</v>
       </c>
@@ -2993,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43881</v>
       </c>
@@ -3001,7 +4016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43882</v>
       </c>
@@ -3009,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43884</v>
       </c>
@@ -3017,7 +4032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43885</v>
       </c>
@@ -3025,7 +4040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>143</v>
       </c>
@@ -3042,19 +4057,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F746598-B0BA-4AAB-8E66-776DDE49E687}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>144</v>
       </c>
@@ -3071,7 +4086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43880</v>
       </c>
@@ -3085,7 +4100,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43880</v>
       </c>
@@ -3099,7 +4114,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43880</v>
       </c>
@@ -3113,7 +4128,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43880</v>
       </c>
@@ -3127,7 +4142,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43880</v>
       </c>
@@ -3141,7 +4156,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43880</v>
       </c>
@@ -3155,7 +4170,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43880</v>
       </c>
@@ -3169,7 +4184,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43880</v>
       </c>
@@ -3183,7 +4198,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43880</v>
       </c>
@@ -3197,7 +4212,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43880</v>
       </c>
@@ -3211,7 +4226,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43880</v>
       </c>
@@ -3228,7 +4243,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43880</v>
       </c>
@@ -3242,10 +4257,10 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f ca="1">TODAY()</f>
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B14">
         <v>24726</v>
@@ -3257,10 +4272,10 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" ref="A15:A24" ca="1" si="0">TODAY()</f>
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B15">
         <v>20504</v>
@@ -3272,10 +4287,10 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B16">
         <v>81361</v>
@@ -3287,10 +4302,10 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B17">
         <v>62352</v>
@@ -3302,10 +4317,10 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B18">
         <v>12948</v>
@@ -3317,10 +4332,10 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B19">
         <v>57938</v>
@@ -3332,10 +4347,10 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B20">
         <v>63289</v>
@@ -3347,10 +4362,10 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B21">
         <v>83099</v>
@@ -3362,10 +4377,10 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B22">
         <v>74463</v>
@@ -3377,10 +4392,10 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B23">
         <v>29572</v>
@@ -3392,10 +4407,10 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B24">
         <v>50248</v>
@@ -3413,30 +4428,365 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3718346F-3DBE-4EA6-8B6F-EF230D57FE45}">
+  <dimension ref="A3:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="3">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62BC739-7065-4910-8BDF-9A1F19CA4208}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="8"/>
+    <col min="1" max="1" width="17.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="8"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.796875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3984375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.86328125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="11" customWidth="1"/>
     <col min="12" max="12" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>184</v>
       </c>
@@ -3474,7 +4824,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>185</v>
       </c>
@@ -3507,7 +4857,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>185</v>
       </c>
@@ -3540,7 +4890,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>185</v>
       </c>
@@ -3573,7 +4923,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>185</v>
       </c>
@@ -3606,7 +4956,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>185</v>
       </c>
@@ -3639,7 +4989,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>185</v>
       </c>
@@ -3672,7 +5022,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>185</v>
       </c>
@@ -3705,7 +5055,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>185</v>
       </c>
@@ -3738,7 +5088,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>185</v>
       </c>
@@ -3771,7 +5121,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>185</v>
       </c>
@@ -3804,7 +5154,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>185</v>
       </c>
@@ -3837,7 +5187,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>185</v>
       </c>
@@ -3870,7 +5220,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>185</v>
       </c>
@@ -3891,7 +5241,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>185</v>
       </c>
@@ -3912,7 +5262,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>185</v>
       </c>
@@ -3933,7 +5283,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>185</v>
       </c>
@@ -3954,7 +5304,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>186</v>
       </c>
@@ -3975,7 +5325,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>186</v>
       </c>
@@ -3996,7 +5346,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>186</v>
       </c>
@@ -4017,7 +5367,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>186</v>
       </c>
@@ -4038,7 +5388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>186</v>
       </c>
@@ -4059,7 +5409,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>186</v>
       </c>
@@ -4080,7 +5430,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>186</v>
       </c>
@@ -4101,7 +5451,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>186</v>
       </c>
@@ -4122,7 +5472,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>186</v>
       </c>
@@ -4143,7 +5493,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>186</v>
       </c>
@@ -4164,7 +5514,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>187</v>
       </c>
@@ -4185,7 +5535,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>187</v>
       </c>
@@ -4206,7 +5556,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>187</v>
       </c>
@@ -4227,7 +5577,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>187</v>
       </c>
@@ -4272,7 +5622,523 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C938CA2-FAE2-4E18-9EF3-88E083855784}">
+  <dimension ref="A3:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="3">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266A6D91-E808-482B-B03F-5054CFA22C2F}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BAC052D-65BB-4A62-B108-B0529EE49DC8}">
+          <x14:formula1>
+            <xm:f>DEPT!$B$2:$B$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB44DEB9-4F91-4917-87A0-CAB630B7C97E}">
+          <x14:formula1>
+            <xm:f>DEPT!$A$2:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5899299-9348-4257-BA19-E4320484C79D}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -4280,15 +6146,15 @@
       <selection sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.53125" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" customWidth="1"/>
-    <col min="4" max="4" width="21.86328125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4297,211 +6163,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B636C2E9-48AB-4C82-82F7-5488A246D229}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="19.46484375" customWidth="1"/>
-    <col min="2" max="2" width="10.53125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67E9388-8F09-466C-9D14-CEDAC7EC34F1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="21.265625" customWidth="1"/>
-    <col min="2" max="2" width="19.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3506AE58-2771-4A31-A5D4-F179244DC879}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Hospital Tables.xlsx
+++ b/Hospital Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paddy\Documents\GitHub\iat-814-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkenday\Documents\GitHub\iat-814-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6401DEFA-4785-4E40-9BBA-7232D654BF41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16DDA4B-3A4C-4160-944F-436EBE04CF97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{75780E1A-AD09-429F-BF4E-1CDD296A98AB}"/>
+    <workbookView minimized="1" xWindow="2573" yWindow="2573" windowWidth="9847" windowHeight="9337" firstSheet="2" activeTab="3" xr2:uid="{75780E1A-AD09-429F-BF4E-1CDD296A98AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bed (2)" sheetId="13" r:id="rId1"/>
@@ -29,9 +29,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId14"/>
-    <pivotCache cacheId="4" r:id="rId15"/>
-    <pivotCache cacheId="8" r:id="rId16"/>
+    <pivotCache cacheId="7" r:id="rId14"/>
+    <pivotCache cacheId="8" r:id="rId15"/>
+    <pivotCache cacheId="9" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1492,7 +1492,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25739C22-F936-4253-95F0-B26479E29BCF}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Admission Date">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25739C22-F936-4253-95F0-B26479E29BCF}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Admission Date">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -1569,7 +1569,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64E8D402-5DA0-4E1F-AA87-13B22F4EA7BC}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64E8D402-5DA0-4E1F-AA87-13B22F4EA7BC}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1746,7 +1746,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADC59E82-0FBD-4250-A3E5-146D086F09F1}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADC59E82-0FBD-4250-A3E5-146D086F09F1}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -2150,23 +2150,23 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="8"/>
+    <col min="1" max="1" width="17.46484375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="8"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.46484375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.86328125" style="11" customWidth="1"/>
     <col min="12" max="12" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>184</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>185</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>185</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>185</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>185</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>185</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>185</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>185</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>185</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>185</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>185</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>185</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>185</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>185</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>185</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>185</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>185</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>186</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>186</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>186</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>186</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="11" t="s">
         <v>186</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
         <v>186</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
         <v>186</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
         <v>186</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>186</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
         <v>186</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
         <v>187</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
         <v>187</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
         <v>187</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
         <v>187</v>
       </c>
@@ -3007,16 +3007,16 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="A2:C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.46484375" customWidth="1"/>
+    <col min="2" max="2" width="10.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -3184,13 +3184,13 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" customWidth="1"/>
+    <col min="2" max="2" width="19.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3203,7 +3203,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3217,15 +3217,15 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>603</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>773</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>745</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>668</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>787</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>726</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>965</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>667</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>907</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>592</v>
       </c>
@@ -3425,25 +3425,25 @@
       <selection activeCell="O1" sqref="O1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.86328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>24726</v>
       </c>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>20504</v>
       </c>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>81361</v>
       </c>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>62352</v>
       </c>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>12948</v>
       </c>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>57938</v>
       </c>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>63289</v>
       </c>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>83099</v>
       </c>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>74463</v>
       </c>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>29572</v>
       </c>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>73323</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>50248</v>
       </c>
@@ -3970,13 +3970,13 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>43876</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>43878</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>43879</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>43881</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>43882</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>43884</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>43885</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>143</v>
       </c>
@@ -4061,15 +4061,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>144</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43880</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43880</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43880</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>43880</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43880</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43880</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43880</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>43880</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>43880</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>43880</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>43880</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>43880</v>
       </c>
@@ -4257,10 +4257,10 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f ca="1">TODAY()</f>
-        <v>43888</v>
+        <v>43900</v>
       </c>
       <c r="B14">
         <v>24726</v>
@@ -4272,10 +4272,10 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" ref="A15:A24" ca="1" si="0">TODAY()</f>
-        <v>43888</v>
+        <v>43900</v>
       </c>
       <c r="B15">
         <v>20504</v>
@@ -4287,10 +4287,10 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43888</v>
+        <v>43900</v>
       </c>
       <c r="B16">
         <v>81361</v>
@@ -4302,10 +4302,10 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43888</v>
+        <v>43900</v>
       </c>
       <c r="B17">
         <v>62352</v>
@@ -4317,10 +4317,10 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43888</v>
+        <v>43900</v>
       </c>
       <c r="B18">
         <v>12948</v>
@@ -4332,10 +4332,10 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43888</v>
+        <v>43900</v>
       </c>
       <c r="B19">
         <v>57938</v>
@@ -4347,10 +4347,10 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43888</v>
+        <v>43900</v>
       </c>
       <c r="B20">
         <v>63289</v>
@@ -4362,10 +4362,10 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43888</v>
+        <v>43900</v>
       </c>
       <c r="B21">
         <v>83099</v>
@@ -4377,10 +4377,10 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43888</v>
+        <v>43900</v>
       </c>
       <c r="B22">
         <v>74463</v>
@@ -4392,10 +4392,10 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43888</v>
+        <v>43900</v>
       </c>
       <c r="B23">
         <v>29572</v>
@@ -4407,10 +4407,10 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43888</v>
+        <v>43900</v>
       </c>
       <c r="B24">
         <v>50248</v>
@@ -4435,13 +4435,13 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>160</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>114</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>115</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>114</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>166</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>116</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>115</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>114</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>167</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>116</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
         <v>115</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>114</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>162</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
         <v>116</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>114</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>163</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>114</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>164</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>115</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>168</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>116</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>114</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>170</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>114</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>171</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
         <v>116</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>115</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>114</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>172</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>116</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>114</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>165</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>116</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
         <v>115</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
         <v>114</v>
       </c>
@@ -4737,19 +4737,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
         <v>191</v>
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>143</v>
       </c>
@@ -4766,27 +4766,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62BC739-7065-4910-8BDF-9A1F19CA4208}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="8"/>
+    <col min="1" max="1" width="17.46484375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="8"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.46484375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.86328125" style="11" customWidth="1"/>
     <col min="12" max="12" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>184</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>185</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>185</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>185</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>185</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>185</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>185</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>185</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>185</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>185</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>185</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>185</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>185</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>185</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>185</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>185</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>185</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>186</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>186</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>186</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>186</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="11" t="s">
         <v>186</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
         <v>186</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
         <v>186</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
         <v>186</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>186</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
         <v>186</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
         <v>187</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
         <v>187</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
         <v>187</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
         <v>187</v>
       </c>
@@ -5630,13 +5630,13 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.53125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>160</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>161</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>166</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>167</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>162</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>163</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>164</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>168</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>170</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>171</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>172</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>165</v>
       </c>
@@ -5740,13 +5740,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>143</v>
       </c>
@@ -5763,18 +5763,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266A6D91-E808-482B-B03F-5054CFA22C2F}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>156</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>157</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>156</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -6146,15 +6146,15 @@
       <selection sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.53125" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
+    <col min="4" max="4" width="21.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
